--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>m3_diameter</t>
   </si>
@@ -93,9 +93,6 @@
     <t>switch_spacing</t>
   </si>
   <si>
-    <t>rivet_diameter</t>
-  </si>
-  <si>
     <t>bend_factor</t>
   </si>
   <si>
@@ -282,12 +279,6 @@
     <t>reservoir_flap_y</t>
   </si>
   <si>
-    <t>handle_hole_spacing</t>
-  </si>
-  <si>
-    <t>handle_hole_diameter</t>
-  </si>
-  <si>
     <t>drawer_window_gap</t>
   </si>
   <si>
@@ -316,6 +307,87 @@
   </si>
   <si>
     <t>frame_front_fold</t>
+  </si>
+  <si>
+    <t>shf8_x</t>
+  </si>
+  <si>
+    <t>shf8_y</t>
+  </si>
+  <si>
+    <t>acme_nut_d</t>
+  </si>
+  <si>
+    <t>acme_nut_upper_d</t>
+  </si>
+  <si>
+    <t>handle_spacing</t>
+  </si>
+  <si>
+    <t>handle_hole_d</t>
+  </si>
+  <si>
+    <t>handle_projection</t>
+  </si>
+  <si>
+    <t>handle_d</t>
+  </si>
+  <si>
+    <t>laser_holder_x</t>
+  </si>
+  <si>
+    <t>laser_holder_y</t>
+  </si>
+  <si>
+    <t>laser_holder_z</t>
+  </si>
+  <si>
+    <t>laser_offset_z</t>
+  </si>
+  <si>
+    <t>laser_offset_x</t>
+  </si>
+  <si>
+    <t>laser_holder_t</t>
+  </si>
+  <si>
+    <t>subframe_x</t>
+  </si>
+  <si>
+    <t>subframe_y</t>
+  </si>
+  <si>
+    <t>subframe_z</t>
+  </si>
+  <si>
+    <t>subframe_t</t>
+  </si>
+  <si>
+    <t>laser_offset_y</t>
+  </si>
+  <si>
+    <t>galvo_y_out_offset</t>
+  </si>
+  <si>
+    <t>galvo_y_in_offset</t>
+  </si>
+  <si>
+    <t>thumb_screw_4_40_diameter</t>
+  </si>
+  <si>
+    <t>laser_diameter</t>
+  </si>
+  <si>
+    <t>corner_small_r</t>
+  </si>
+  <si>
+    <t>corner_big_r</t>
+  </si>
+  <si>
+    <t>rivet1_diameter</t>
+  </si>
+  <si>
+    <t>rivet2_diameter</t>
   </si>
 </sst>
 </file>
@@ -654,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -675,16 +747,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <f>25.4/16</f>
-        <v>1.5874999999999999</v>
+        <f>25.4*0.0359</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <f>25.4/16</f>
@@ -693,7 +765,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B7" si="0">25.4/16</f>
@@ -702,16 +774,16 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.5874999999999999</v>
+        <f>25.4/32</f>
+        <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -720,7 +792,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -729,7 +801,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>2.2620472440944801</v>
@@ -737,16 +809,16 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <f>B2*B$8</f>
-        <v>3.5909999999999869</v>
+        <v>2.0626703999999925</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B14" si="1">B3*B$8</f>
@@ -755,7 +827,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -764,16 +836,16 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>3.5909999999999869</v>
+        <v>1.7954999999999934</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -782,7 +854,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -791,7 +863,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <f>5.6*1.05</f>
@@ -800,7 +872,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <f>3*1.05</f>
@@ -809,7 +881,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <f>3*1.05</f>
@@ -818,705 +890,907 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B18">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B19">
-        <f>B86+8</f>
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>220</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <f>B99+8</f>
+        <v>208.23622</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>10.3</v>
+        <f>2*25.4</f>
+        <v>50.8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>3.3</v>
+        <f>3/16*25.4</f>
+        <v>4.7624999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <f>B37+0.3</f>
+        <v>5.0624999999999991</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>6.7</v>
+        <f>(1-3/16)*25.4</f>
+        <v>20.637499999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>4.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>6.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <f>B5</f>
-        <v>1.5874999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <f>B42+10</f>
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <f>B43+10</f>
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <f>B55-2*B53-2*B51</f>
-        <v>46.625</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <f>B5</f>
-        <v>1.5874999999999999</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B54">
-        <f>B19+B24</f>
-        <v>223</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B56">
-        <v>0.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <f>B21</f>
-        <v>48</v>
+        <f>B6</f>
+        <v>1.5874999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <f>B55+10</f>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B59">
+        <f>B56+10</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <f>B61+10+B80</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <f>B68-2*B66-2*B64</f>
+        <v>46.625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <f>B6</f>
+        <v>1.5874999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <f>B21+B29</f>
+        <v>233.23622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <f>B26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
         <f>B15</f>
         <v>5.88</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <f>B58+B77*2+B73*2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B61">
-        <f>B45+B64*2+B60*2</f>
+      <c r="B75">
+        <f>B59+B77*2+B73*2</f>
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76">
+        <f>B5</f>
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <f>B74</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <f>B75</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B62">
-        <f>B46+B64*2+B60*2</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <f>B5</f>
-        <v>1.5874999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <f>B61</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <f>B62</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B81">
+        <f>B58+10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B68">
-        <f>B45+10</f>
+      <c r="B82">
+        <f>B59+10</f>
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69">
-        <f>B46+10</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83">
         <f>20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71">
-        <f>B70+B63</f>
-        <v>21.587499999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72">
-        <f>B70*2+B66</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73">
-        <f>B2</f>
-        <v>1.5874999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <f>FLOOR(B93-B74*2,1)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77">
-        <f>B91-B89*2+B74*2-B88*2</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78">
-        <f>B55+20</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79">
-        <f>B18</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82">
-        <f>B2</f>
-        <v>1.5874999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83">
-        <f>B77-2*B73-2*B81</f>
-        <v>266.625</v>
-      </c>
-    </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <f>B78-2*B73-2*B81</f>
-        <v>66.625</v>
+        <f>B83+B76</f>
+        <v>20.793749999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B85">
-        <f>B79-2*B73-2*B81</f>
-        <v>496.625</v>
+        <f>B83*2+B79</f>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <f>B77-2*B74</f>
-        <v>190</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <f>B79-2*B74</f>
-        <v>420</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B88">
-        <f>B5</f>
-        <v>1.5874999999999999</v>
+        <f>MIN(30, B105-B101)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B89">
-        <v>0.1</v>
+        <f>FLOOR(B106-B87*2,1)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B90">
-        <f>20-B88</f>
-        <v>18.412500000000001</v>
+        <f>B104-B102*2+B87*2-B101*2</f>
+        <v>280.23622</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B91">
-        <f>B65+B90*2+B89*2+B88*2+B73*2</f>
-        <v>193.375</v>
+        <f>B68+6</f>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B92">
-        <f>(B72-B78)/2+B96</f>
-        <v>65</v>
+        <f>B20</f>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
         <v>15</v>
-      </c>
-      <c r="B93">
-        <f>CEILING(B18-B20-B57-B23+B88,5)</f>
-        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B94">
-        <f>B72/2+B96</f>
-        <v>100</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B95">
-        <v>15</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <f>B90-2*B86-2*B94</f>
+        <v>278.21250000000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B97">
-        <f>B2</f>
-        <v>1.5874999999999999</v>
+        <f>B91-2*B86-2*B94</f>
+        <v>53.976279999999996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98">
-        <f>B91</f>
-        <v>193.375</v>
+        <f>B92-2*B86-2*B94</f>
+        <v>497.97628000000003</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B99">
-        <f>B94*2</f>
-        <v>200</v>
+        <f>B90-2*B87</f>
+        <v>200.23622</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B100">
+        <f>B92-2*B87</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101">
+        <f>B5</f>
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <f>25-B101</f>
+        <v>24.206250000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <f>B78+B103*2+B102*2+B101*2+B86*2</f>
+        <v>202.02372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <f>(B85-B91)/2+B109</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>15</v>
+      </c>
+      <c r="B106">
+        <f>CEILING(B20-B22-B70-B28+B101,5)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107">
+        <f>B85/2+B109</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108">
+        <f>CEILING(B103-5,1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110">
+        <f>B2</f>
+        <v>0.91186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111">
+        <f>B104</f>
+        <v>202.02372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <f>B107*2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <f>B5</f>
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118">
+        <f>B21/2-B32/2-B115</f>
+        <v>59.118110000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121">
+        <f>B5</f>
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>m3_diameter</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>rivet2_diameter</t>
+  </si>
+  <si>
+    <t>platform_gap</t>
+  </si>
+  <si>
+    <t>platform_arch_diameter</t>
+  </si>
+  <si>
+    <t>shf8_z</t>
   </si>
 </sst>
 </file>
@@ -726,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +926,8 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <f>B99+8</f>
-        <v>208.23622</v>
+        <f>CEILING(B102+8,1)</f>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +935,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,131 +1028,131 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B34">
-        <v>19.100000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>12.7</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>101</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <f>2*25.4</f>
         <v>50.8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f>3/16*25.4</f>
         <v>4.7624999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38">
-        <f>B37+0.3</f>
-        <v>5.0624999999999991</v>
-      </c>
-    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39">
+        <f>B38+0.3</f>
+        <v>5.0624999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>(1-3/16)*25.4</f>
         <v>20.637499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40">
-        <v>19</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>10.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>3.26</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>3.26</v>
@@ -1151,55 +1160,55 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>6.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -1207,25 +1216,24 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58">
-        <f>B55+10</f>
-        <v>110</v>
-      </c>
-    </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <f>B56+10</f>
@@ -1234,562 +1242,587 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <f>B61+10+B80</f>
-        <v>70</v>
+        <f>B57+10</f>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <f>B62+10+B83</f>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65">
-        <f>B68-2*B66-2*B64</f>
-        <v>46.625</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <f>B71-2*B69-2*B65</f>
+        <v>46.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>62</v>
       </c>
-      <c r="B66">
+      <c r="B69">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67">
-        <f>B21+B29</f>
-        <v>233.23622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69">
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <f>B21+B29</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B70">
+      <c r="B73">
         <f>B26</f>
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>81</v>
       </c>
-      <c r="B72">
+      <c r="B75">
         <f>B15</f>
         <v>5.88</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74">
-        <f>B58+B77*2+B73*2</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75">
-        <f>B59+B77*2+B73*2</f>
-        <v>150</v>
-      </c>
-    </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <f>B59+B80*2+B76*2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <f>B60+B80*2+B76*2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>63</v>
       </c>
-      <c r="B76">
+      <c r="B79">
         <f>B5</f>
         <v>0.79374999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78">
-        <f>B74</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79">
-        <f>B75</f>
-        <v>150</v>
-      </c>
-    </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <f>B58+10</f>
-        <v>120</v>
+        <f>B77</f>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B82">
+        <f>B78</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
         <f>B59+10</f>
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f>B60+10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>57</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <f>20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
-        <f>B83+B76</f>
+      <c r="B87">
+        <f>B86+B79</f>
         <v>20.793749999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>68</v>
       </c>
-      <c r="B85">
-        <f>B83*2+B79</f>
+      <c r="B88">
+        <f>B86*2+B82</f>
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>64</v>
       </c>
-      <c r="B86">
+      <c r="B89">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88">
-        <f>MIN(30, B105-B101)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89">
-        <f>FLOOR(B106-B87*2,1)</f>
-        <v>130</v>
-      </c>
-    </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <f>B104-B102*2+B87*2-B101*2</f>
-        <v>280.23622</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B91">
-        <f>B68+6</f>
-        <v>56</v>
+        <f>MIN(30, B108-B104)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92">
+        <f>FLOOR(B109-B90*2,1)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <f>B107-B105*2+B90*2-B104*2</f>
+        <v>280.23622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94">
+        <f>B71+6</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>47</v>
       </c>
-      <c r="B92">
+      <c r="B95">
         <f>B20</f>
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B93">
+      <c r="B96">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>70</v>
       </c>
-      <c r="B94">
+      <c r="B97">
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>65</v>
       </c>
-      <c r="B95">
+      <c r="B98">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96">
-        <f>B90-2*B86-2*B94</f>
-        <v>278.21250000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97">
-        <f>B91-2*B86-2*B94</f>
-        <v>53.976279999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98">
-        <f>B92-2*B86-2*B94</f>
-        <v>497.97628000000003</v>
-      </c>
-    </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B99">
-        <f>B90-2*B87</f>
-        <v>200.23622</v>
+        <f>B93-2*B89-2*B97</f>
+        <v>278.21250000000003</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B100">
-        <f>B92-2*B87</f>
-        <v>420</v>
+        <f>B94-2*B89-2*B97</f>
+        <v>53.976279999999996</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <f>B95-2*B89-2*B97</f>
+        <v>497.97628000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <f>B93-2*B90</f>
+        <v>200.23622</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103">
+        <f>B95-2*B90</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>66</v>
       </c>
-      <c r="B101">
+      <c r="B104">
         <f>B5</f>
         <v>0.79374999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103">
-        <f>25-B101</f>
-        <v>24.206250000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <f>B78+B103*2+B102*2+B101*2+B86*2</f>
-        <v>202.02372</v>
-      </c>
-    </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B105">
-        <f>(B85-B91)/2+B109</f>
-        <v>72</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B106">
-        <f>CEILING(B20-B22-B70-B28+B101,5)</f>
-        <v>210</v>
+        <f>25-B104</f>
+        <v>24.206250000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <f>B85/2+B109</f>
-        <v>100</v>
+        <f>B81+B106*2+B105*2+B104*2+B89*2</f>
+        <v>202.02372</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B108">
-        <f>CEILING(B103-5,1)</f>
-        <v>20</v>
+        <f>(B88-B94)/2+B112</f>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <f>CEILING(B20-B22-B73-B28+B104,5)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B110">
-        <f>B2</f>
-        <v>0.91186</v>
+        <f>B88/2+B112</f>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B111">
-        <f>B104</f>
-        <v>202.02372</v>
+        <f>CEILING(B106-5,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B112">
-        <f>B107*2</f>
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <f>B6</f>
+        <v>1.5874999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114">
+        <f>FLOOR(B107-10,1)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115">
+        <f>B110*2-6</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>110</v>
       </c>
-      <c r="B114">
+      <c r="B117">
         <f>B5</f>
         <v>0.79374999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117">
-        <v>75</v>
-      </c>
-    </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B118">
-        <f>B21/2-B32/2-B115</f>
-        <v>59.118110000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B119">
-        <v>8.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B120">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121">
+        <f>B21/2-B32/2-B118</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>114</v>
       </c>
-      <c r="B121">
+      <c r="B124">
         <f>B5</f>
         <v>0.79374999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>111</v>
       </c>
-      <c r="B122">
+      <c r="B125">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>112</v>
       </c>
-      <c r="B123">
+      <c r="B126">
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>113</v>
       </c>
-      <c r="B124">
+      <c r="B127">
         <v>70</v>
       </c>
     </row>

--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>m3_diameter</t>
   </si>
@@ -397,6 +397,24 @@
   </si>
   <si>
     <t>shf8_z</t>
+  </si>
+  <si>
+    <t>shield_x</t>
+  </si>
+  <si>
+    <t>shield_y</t>
+  </si>
+  <si>
+    <t>shield_z</t>
+  </si>
+  <si>
+    <t>shield_t</t>
+  </si>
+  <si>
+    <t>magnet_t</t>
+  </si>
+  <si>
+    <t>magnet_w</t>
   </si>
 </sst>
 </file>
@@ -735,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1680,7 @@
       </c>
       <c r="B108">
         <f>(B88-B94)/2+B112</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1698,7 @@
       </c>
       <c r="B110">
         <f>B88/2+B112</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1715,8 @@
         <v>87</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <f>CEILING(B128+2*B104 + 1,0.5)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,8 +1733,8 @@
         <v>51</v>
       </c>
       <c r="B114">
-        <f>FLOOR(B107-10,1)</f>
-        <v>192</v>
+        <f>B21-10</f>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1743,7 @@
       </c>
       <c r="B115">
         <f>B110*2-6</f>
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,6 +1843,58 @@
       </c>
       <c r="B127">
         <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <f>B16</f>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f>B107-B104*2</f>
+        <v>200.43621999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f>FLOOR(B108-2*B104,0.5)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f>B95-B90-B109+B104</f>
+        <v>260.79374999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1886,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>

--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>m3_diameter</t>
   </si>
@@ -351,18 +351,6 @@
     <t>laser_holder_t</t>
   </si>
   <si>
-    <t>subframe_x</t>
-  </si>
-  <si>
-    <t>subframe_y</t>
-  </si>
-  <si>
-    <t>subframe_z</t>
-  </si>
-  <si>
-    <t>subframe_t</t>
-  </si>
-  <si>
     <t>laser_offset_y</t>
   </si>
   <si>
@@ -415,6 +403,27 @@
   </si>
   <si>
     <t>magnet_w</t>
+  </si>
+  <si>
+    <t>1568A63</t>
+  </si>
+  <si>
+    <t>mcmaster</t>
+  </si>
+  <si>
+    <t>sae_4_40_diameter</t>
+  </si>
+  <si>
+    <t>20 gauge</t>
+  </si>
+  <si>
+    <t>1/32" aluminum</t>
+  </si>
+  <si>
+    <t>1/16" aluminum</t>
+  </si>
+  <si>
+    <t>16 gauge</t>
   </si>
 </sst>
 </file>
@@ -450,8 +459,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +774,7 @@
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -772,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -780,26 +790,31 @@
         <f>25.4*0.0359</f>
         <v>0.91186</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
-        <f>25.4/16</f>
+        <f>25.4*0.0625</f>
         <v>1.5874999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="0">25.4/16</f>
-        <v>1.5874999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -807,26 +822,31 @@
         <f>25.4/32</f>
         <v>0.79374999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6" si="0">25.4/16</f>
         <v>1.5874999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1.5874999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -834,7 +854,7 @@
         <v>2.2620472440944801</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -843,7 +863,7 @@
         <v>2.0626703999999925</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -852,16 +872,16 @@
         <v>3.5909999999999869</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>3.5909999999999869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113.102362204724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -870,7 +890,7 @@
         <v>1.7954999999999934</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -879,16 +899,16 @@
         <v>3.5909999999999869</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>3.5909999999999869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113.102362204724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -897,7 +917,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -917,7 +937,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -925,7 +945,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -944,8 +964,8 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <f>CEILING(B102+8,1)</f>
-        <v>209</v>
+        <f>CEILING(B103+8,1)</f>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +978,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -966,7 +986,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>17.5</v>
@@ -974,7 +994,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -1036,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -1044,15 +1064,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1076,8 +1096,14 @@
         <f>2*25.4</f>
         <v>50.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1086,16 +1112,16 @@
         <v>4.7624999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
       <c r="B39">
-        <f>B38+0.3</f>
-        <v>5.0624999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B51</f>
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -1104,7 +1130,7 @@
         <v>20.637499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1168,149 +1194,155 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B49">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B50">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>6.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>6.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>43</v>
-      </c>
-      <c r="B56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>44</v>
       </c>
       <c r="B57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>54</v>
-      </c>
-      <c r="B59">
-        <f>B56+10</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>55</v>
       </c>
       <c r="B60">
         <f>B57+10</f>
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <f>B58+10</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B61">
-        <f>B62+10+B83</f>
+      <c r="B62">
+        <f>B63+10+B84</f>
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64">
-        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>0.1</v>
@@ -1318,136 +1350,135 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B67">
-        <f>B71-2*B69-2*B65</f>
-        <v>46.625</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <f>B72-2*B70-2*B66</f>
+        <v>46.625</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>62</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <f>B21+B29</f>
-        <v>234</v>
-      </c>
-    </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>50</v>
+        <f>B21+B29</f>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>0.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <f>B26</f>
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74">
-        <v>20</v>
-      </c>
-    </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <f>B15</f>
         <v>5.88</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B77">
-        <f>B59+B80*2+B76*2</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <f>B60+B80*2+B76*2</f>
+        <f>B60+B81*2+B77*2</f>
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <f>B5</f>
-        <v>0.79374999999999996</v>
+        <f>B61+B81*2+B77*2</f>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <f>B77</f>
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <f>B78</f>
@@ -1456,24 +1487,24 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>35</v>
+        <f>B79</f>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <f>B59+10</f>
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <f>B60+10</f>
@@ -1482,376 +1513,379 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f>B61+10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>57</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <f>20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <f>B86+B79</f>
-        <v>20.793749999999999</v>
-      </c>
-    </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <f>B86*2+B82</f>
-        <v>190</v>
+        <f>B87+B80</f>
+        <v>20.911860000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89">
+        <f>B87*2+B83</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>64</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90">
-        <v>40</v>
-      </c>
-    </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <f>MIN(30, B108-B104)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92">
-        <f>FLOOR(B109-B90*2,1)</f>
-        <v>120</v>
+        <f>MIN(30, B109-B105)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B93">
-        <f>B107-B105*2+B90*2-B104*2</f>
-        <v>280.23622</v>
+        <f>FLOOR(B110-B91*2,1)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94">
-        <f>B71+6</f>
-        <v>56</v>
+        <f>B108-B106*2+B91*2-B105*2</f>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95">
+        <f>B72+6</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>47</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <f>B20</f>
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>15</v>
-      </c>
-    </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>0.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>65</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99">
-        <f>B93-2*B89-2*B97</f>
-        <v>278.21250000000003</v>
-      </c>
-    </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100">
-        <f>B94-2*B89-2*B97</f>
-        <v>53.976279999999996</v>
+        <f>B94-2*B90-2*B98</f>
+        <v>277.97628000000003</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B101">
-        <f>B95-2*B89-2*B97</f>
-        <v>497.97628000000003</v>
+        <f>B95-2*B90-2*B98</f>
+        <v>53.976279999999996</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B102">
-        <f>B93-2*B90</f>
-        <v>200.23622</v>
+        <f>B96-2*B90-2*B98</f>
+        <v>497.97628000000003</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B103">
-        <f>B95-2*B90</f>
-        <v>420</v>
+        <f>B94-2*B91</f>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B104">
-        <f>B5</f>
-        <v>0.79374999999999996</v>
+        <f>B96-2*B91</f>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B105">
-        <v>0.1</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B106">
-        <f>25-B104</f>
-        <v>24.206250000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B107">
-        <f>B81+B106*2+B105*2+B104*2+B89*2</f>
-        <v>202.02372</v>
+        <f>25-B105</f>
+        <v>24.088139999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108">
-        <f>(B88-B94)/2+B112</f>
-        <v>73</v>
+        <f>B82+B107*2+B106*2+B105*2+B90*2</f>
+        <v>202.02372</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109">
-        <f>CEILING(B20-B22-B73-B28+B104,5)</f>
-        <v>200</v>
+        <f>(B89-B95)/2+B113</f>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B110">
-        <f>B88/2+B112</f>
-        <v>101</v>
+        <f>CEILING(B20-B22-B74-B28+B105,5)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B111">
-        <f>CEILING(B106-5,1)</f>
-        <v>20</v>
+        <f>B89/2+B113</f>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B112">
-        <f>CEILING(B128+2*B104 + 1,0.5)</f>
-        <v>6</v>
+        <f>CEILING(B107-5,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B113">
-        <f>B6</f>
-        <v>1.5874999999999999</v>
+        <f>CEILING(B125+2*B105 + 1,0.5)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B114">
-        <f>B21-10</f>
-        <v>199</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B115">
-        <f>B110*2-6</f>
-        <v>196</v>
+        <f>B21-10</f>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <f>B111*2-6</f>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B117">
-        <f>B5</f>
-        <v>0.79374999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B118">
-        <v>30</v>
+        <f>B2</f>
+        <v>0.91186</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B121">
-        <f>B21/2-B32/2-B118</f>
-        <v>59.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B122">
-        <v>8.5</v>
+        <f>B21/2-B32/2-B119</f>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B123">
-        <v>50</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B124">
-        <f>B5</f>
-        <v>0.79374999999999996</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B125">
-        <v>66</v>
+        <f>B16</f>
+        <v>3.1500000000000004</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B126">
-        <v>55</v>
+        <f>B108-B105*2</f>
+        <v>200.2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B127">
-        <v>70</v>
+        <f>FLOOR(B109-2*B105,0.5)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B128">
-        <f>B16</f>
-        <v>3.1500000000000004</v>
+        <f>B96-B91-B110 - B106</f>
+        <v>259.89999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,8 +1893,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <f>B107-B104*2</f>
-        <v>200.43621999999999</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,38 +1901,12 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <f>FLOOR(B108-2*B104,0.5)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <f>B95-B90-B109+B104</f>
-        <v>260.79374999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
         <v>12.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/laserresin5.xlsx
+++ b/laserresin5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
   <si>
     <t>m3_diameter</t>
   </si>
@@ -424,6 +424,27 @@
   </si>
   <si>
     <t>16 gauge</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>s-m3-0</t>
+  </si>
+  <si>
+    <t>s-m5-0</t>
+  </si>
+  <si>
+    <t>acme_screw</t>
+  </si>
+  <si>
+    <t>8mm diameter 250mm length</t>
+  </si>
+  <si>
+    <t>thicker</t>
+  </si>
+  <si>
+    <t>thinner</t>
   </si>
 </sst>
 </file>
@@ -763,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <f>CEILING(B103+8,1)</f>
+        <f>CEILING(B104+8,1)</f>
         <v>208</v>
       </c>
     </row>
@@ -1090,124 +1111,127 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>101</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f>2*25.4</f>
         <v>50.8</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <f>3/16*25.4</f>
         <v>4.7624999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39">
-        <f>B51</f>
-        <v>2.8450000000000002</v>
-      </c>
-    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40">
+        <f>B52</f>
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>103</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>(1-3/16)*25.4</f>
         <v>20.637499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-    </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>10.3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>118</v>
-      </c>
-      <c r="B49">
-        <v>3.26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>119</v>
       </c>
       <c r="B50">
         <v>3.26</v>
@@ -1215,142 +1239,163 @@
       <c r="D50" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51">
+        <v>3.26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>131</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>6.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B54">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>4.24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B55">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>6.35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>43</v>
-      </c>
-      <c r="B57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>44</v>
       </c>
       <c r="B58">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>54</v>
-      </c>
-      <c r="B60">
-        <f>B57+10</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>55</v>
       </c>
       <c r="B61">
         <f>B58+10</f>
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <f>B59+10</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B62">
-        <f>B63+10+B84</f>
+      <c r="B63">
+        <f>B64+10+B85</f>
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>59</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64">
-        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>0.1</v>
@@ -1358,136 +1403,135 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B68">
-        <f>B72-2*B70-2*B66</f>
-        <v>46.625</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <f>B73-2*B71-2*B67</f>
+        <v>46.625</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <f>B6</f>
         <v>1.5874999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <f>B21+B29</f>
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72">
-        <v>50</v>
-      </c>
-    </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B73">
-        <v>0.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <f>B26</f>
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
-    </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <f>B15</f>
         <v>5.88</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B78">
-        <f>B60+B81*2+B77*2</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <f>B61+B81*2+B77*2</f>
+        <f>B61+B82*2+B78*2</f>
         <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <f>B62+B82*2+B78*2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>63</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-    </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <f>B78</f>
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <f>B79</f>
@@ -1496,24 +1540,24 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>35</v>
+        <f>B80</f>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <f>B60+10</f>
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <f>B61+10</f>
@@ -1522,385 +1566,394 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f>B62+10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>57</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <f>20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <f>B87+B80</f>
-        <v>20.911860000000001</v>
-      </c>
-    </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <f>B87*2+B83</f>
-        <v>190</v>
+        <f>B88+B81</f>
+        <v>20.911860000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90">
+        <f>B88*2+B84</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91">
-        <v>40</v>
-      </c>
-    </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <f>MIN(30, B109-B105)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93">
-        <f>FLOOR(B110-B91*2,1)</f>
-        <v>120</v>
+        <f>MIN(30, B110-B106)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B94">
-        <f>B108-B106*2+B91*2-B105*2</f>
-        <v>280</v>
+        <f>FLOOR(B111-B92*2,1)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95">
-        <f>B72+6</f>
-        <v>56</v>
+        <f>B109-B107*2+B92*2-B106*2</f>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96">
+        <f>B73+6</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>47</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <f>B20</f>
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>15</v>
-      </c>
-    </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>65</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100">
-        <f>B94-2*B90-2*B98</f>
-        <v>277.97628000000003</v>
-      </c>
-    </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101">
-        <f>B95-2*B90-2*B98</f>
-        <v>53.976279999999996</v>
+        <f>B95-2*B91-2*B99</f>
+        <v>277.97628000000003</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102">
-        <f>B96-2*B90-2*B98</f>
-        <v>497.97628000000003</v>
+        <f>B96-2*B91-2*B99</f>
+        <v>53.976279999999996</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B103">
-        <f>B94-2*B91</f>
-        <v>200</v>
+        <f>B97-2*B91-2*B99</f>
+        <v>497.97628000000003</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B104">
-        <f>B96-2*B91</f>
-        <v>420</v>
+        <f>B95-2*B92</f>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105">
+        <f>B97-2*B92</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>66</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106">
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B107">
-        <f>25-B105</f>
-        <v>24.088139999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B108">
-        <f>B82+B107*2+B106*2+B105*2+B90*2</f>
-        <v>202.02372</v>
+        <f>25-B106</f>
+        <v>24.088139999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109">
-        <f>(B89-B95)/2+B113</f>
-        <v>73</v>
+        <f>B83+B108*2+B107*2+B106*2+B91*2</f>
+        <v>202.02372</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110">
-        <f>CEILING(B20-B22-B74-B28+B105,5)</f>
-        <v>200</v>
+        <f>(B90-B96)/2+B114</f>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B111">
-        <f>B89/2+B113</f>
-        <v>101</v>
+        <f>CEILING(B20-B22-B75-B28+B106,5)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B112">
-        <f>CEILING(B107-5,1)</f>
-        <v>20</v>
+        <f>B90/2+B114</f>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B113">
-        <f>CEILING(B125+2*B105 + 1,0.5)</f>
-        <v>6</v>
+        <f>CEILING(B108-5,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114">
+        <f>CEILING(B126+2*B106 + 1,0.5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>67</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>51</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <f>B21-10</f>
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116">
-        <f>B111*2-6</f>
-        <v>196</v>
-      </c>
-    </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <f>B112*2-6</f>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>110</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <f>B2</f>
         <v>0.91186</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119">
-        <v>30</v>
-      </c>
-    </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B121">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B122">
-        <f>B21/2-B32/2-B119</f>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123">
-        <v>8.5</v>
+        <f>B21/2-B32/2-B120</f>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B124">
-        <v>50</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <f>B16</f>
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126">
-        <f>B108-B105*2</f>
-        <v>200.2</v>
-      </c>
-    </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127">
-        <f>FLOOR(B109-2*B105,0.5)</f>
-        <v>71</v>
+        <f>B109-B106*2</f>
+        <v>200.2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128">
-        <f>B96-B91-B110 - B106</f>
-        <v>259.89999999999998</v>
+        <f>FLOOR(B110-2*B106,0.5)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129">
-        <v>1.6</v>
+        <f>B97-B92-B111 - B107</f>
+        <v>259.89999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>12.8</v>
       </c>
     </row>
